--- a/cm/SignalLib.xlsx
+++ b/cm/SignalLib.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhoutinglin\Documents\1_MyDoc\Doc2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E3D67-37A2-4374-AE0E-10999B0EC347}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1EC67-2E01-4DCF-9003-BA207045CB3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{7DC9A8E4-0A0D-47CF-8FE8-FB326EEBEC26}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -56,47 +56,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>InjSys_qTot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1 1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mg/hub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelMass_mg_hub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total engine injection quantity</t>
-  </si>
-  <si>
-    <t>InjSys_qOfsTot</t>
-  </si>
-  <si>
-    <t>Non-torque generating quantity, the offset-quantity from torque generating quantity to total quantity</t>
-  </si>
-  <si>
-    <t>InjSys_qInrCmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inner combusted quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InjSys_qOutrCmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outer combusted quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>From</t>
@@ -512,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E094B8C-3C53-43C9-AC01-28A4413CB231}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -558,110 +517,6 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-319</v>
-      </c>
-      <c r="D2" s="5">
-        <v>319</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-319</v>
-      </c>
-      <c r="D3" s="5">
-        <v>319</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-319</v>
-      </c>
-      <c r="D4" s="5">
-        <v>319</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-319</v>
-      </c>
-      <c r="D5" s="5">
-        <v>319</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
